--- a/預計進度.xlsx
+++ b/預計進度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>第4章</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,17 +153,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本日學習C#的
-類別：類別的修飾符號-public(可跨命名空間)、internal(預設)、abstract(抽象類別-無法產生實例);類別內的修飾符號-public、protected internal
-       、internal、protected、private(預設)、static(無法存取非static的方法、屬性、字段)、partial(類似swift的extend)
-方法：方法中的參數有四類，值參數、參考參數(ref)、輸出參數(out)、多組參數(params)，值參數可以指定預設值，輸出參數必須在方法內指派值給參           數， 另外C#與swift一樣支援方法的overload。
+    <t>抽象類別(無法產生實例，繼承用)、抽象方法、類別內成員的訪問權限、typeof及System.Reflection使用方式、自定義轉型、運算子重載、using語句的使用方法、錯誤處理、程序集與命名空間。
+本日程式碼:https://github.com/SuperAPPKid/C-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>類別：類別的修飾符號-public(可跨命名空間)、internal(預設)、abstract(抽象類別-無法產生實例);類別內的修飾符號-public、protected internal、internal、protected、private(預設)、static(無法存取非static的方法、屬性、字段)、partial(類似swift的extend)
+方法：方法中的參數有四類，值參數、參考參數(ref)、輸出參數(out)、多組參數(params)，值參數可以指定預設值，輸出參數必須在方法內指派值給參數， 另外C#與swift一樣支援方法的overload。
 字段：修飾符號constant(編譯時決定，非存在記憶體)、readonly(運行時決定，唯獨的字段，在初始化時給值)。
-屬性：一組函式透過get取字段的值，set賦值，若只使用get，則是唯獨屬性，只能在實例初始化的時候(建構器)給值，如只把setter設為private，外部類        別便無法賦值。
+屬性：一組函式透過get取字段的值，set賦值，若只使用get，則是唯獨屬性，只能在實例初始化的時候(建構器)給值，如只把setter設為private，外部類別便無法賦值。
 索引：無static，與屬性同樣有getter與setter，但可以輸入參數，有overload。
-建構器：一個特殊的方法，在new一個新實例會呼叫(可以有參數、可加訪問權限的修飾符號)，若加上static則變成類別創造時自動呼叫(不能有參數、不能          加訪問權限的修飾符號)，後面可加this或base來使用自己類別或父類別的其他初始化方法，有overload。
+建構器：一個特殊的方法，在new一個新實例會呼叫(可以有參數、可加訪問權限的修飾符號)，若加上static則變成類別創造時自動呼叫(不能有參數、不能加訪問權限的修飾符號)，後面可加this或base來使用自己類別或父類別的其他初始化方法，有overload。
 解構器：類似swift的deinit。
-繼承：所有類別繼承自object，new-隱藏父類別(可能還會用到父類別方法或屬性)、base-取得父類別(只能再方法呼叫)、override必須搭配abstract(覆         寫抽象方法)或virtual(覆寫父類別-不會再用到父類別方法或屬性)
+繼承：所有類別繼承自object，new-隱藏父類別(可能還會用到父類別方法或屬性)、base-取得父類別(只能再方法呼叫)、override必須搭配abstract(覆寫抽象方法)或virtual(覆寫父類別-不會再用到父類別方法或屬性)
 程式碼:https://github.com/SuperAPPKid/C-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結構與列舉、二進位運算子、陣列、委派、匿名方法、Lambda表達式、事件(委託類型聲明、事件聲明、處理程序聲明、事件註冊、觸發事件的代碼)、
+EventHandler標準事件、Timer。
+本日程式碼:https://github.com/SuperAPPKid/C-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -225,6 +234,9 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -529,7 +541,7 @@
   <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F16" sqref="F16:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -574,8 +586,8 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>38</v>
+      <c r="F3" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -595,7 +607,7 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
@@ -614,7 +626,7 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
@@ -633,7 +645,7 @@
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
@@ -652,6 +664,9 @@
       <c r="E7">
         <v>6</v>
       </c>
+      <c r="F7" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
@@ -670,6 +685,7 @@
       <c r="E8">
         <v>7</v>
       </c>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
@@ -688,6 +704,7 @@
       <c r="E9">
         <v>8</v>
       </c>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
@@ -706,6 +723,7 @@
       <c r="E10">
         <v>9</v>
       </c>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
@@ -715,7 +733,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="1">
-        <v>43224</v>
+        <v>43227</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
@@ -723,6 +741,9 @@
       </c>
       <c r="E11">
         <v>10</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -733,7 +754,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="1">
-        <v>43224</v>
+        <v>43227</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
@@ -742,6 +763,7 @@
       <c r="E12">
         <v>11</v>
       </c>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
@@ -751,7 +773,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="1">
-        <v>43224</v>
+        <v>43227</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
@@ -760,6 +782,7 @@
       <c r="E13">
         <v>12</v>
       </c>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
@@ -778,6 +801,7 @@
       <c r="E14">
         <v>13</v>
       </c>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
@@ -796,6 +820,7 @@
       <c r="E15">
         <v>14</v>
       </c>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
@@ -805,7 +830,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="1">
-        <v>43227</v>
+        <v>43228</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="0"/>
@@ -814,8 +839,9 @@
       <c r="E16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -832,8 +858,9 @@
       <c r="E17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -850,8 +877,9 @@
       <c r="E18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -859,7 +887,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="1">
-        <v>43229</v>
+        <v>43228</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="0"/>
@@ -868,8 +896,9 @@
       <c r="E19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -877,7 +906,7 @@
         <v>35</v>
       </c>
       <c r="C20" s="1">
-        <v>43229</v>
+        <v>43228</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="0"/>
@@ -886,10 +915,15 @@
       <c r="E20">
         <v>19</v>
       </c>
+      <c r="F20" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F16:F18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/預計進度.xlsx
+++ b/預計進度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>第4章</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,8 +153,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抽象類別(無法產生實例，繼承用)、抽象方法、類別內成員的訪問權限、typeof及System.Reflection使用方式、自定義轉型、運算子重載、using語句的使用方法、錯誤處理、程序集與命名空間。
-本日程式碼:https://github.com/SuperAPPKid/C-</t>
+    <t>結構與列舉、二進位運算子、陣列、委派、匿名方法、Lambda表達式、事件(委託類型聲明、事件聲明、處理程序聲明、事件註冊、觸發事件的代碼)、
+EventHandler標準事件、Timer。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象類別(無法產生實例，繼承用)、抽象方法、類別內成員的訪問權限、typeof及System.Reflection使用方式、自定義轉型、運算子重載、using語句的使用方法、錯誤處理、程序集與命名空間。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -165,14 +169,13 @@
 索引：無static，與屬性同樣有getter與setter，但可以輸入參數，有overload。
 建構器：一個特殊的方法，在new一個新實例會呼叫(可以有參數、可加訪問權限的修飾符號)，若加上static則變成類別創造時自動呼叫(不能有參數、不能加訪問權限的修飾符號)，後面可加this或base來使用自己類別或父類別的其他初始化方法，有overload。
 解構器：類似swift的deinit。
-繼承：所有類別繼承自object，new-隱藏父類別(可能還會用到父類別方法或屬性)、base-取得父類別(只能再方法呼叫)、override必須搭配abstract(覆寫抽象方法)或virtual(覆寫父類別-不會再用到父類別方法或屬性)
-程式碼:https://github.com/SuperAPPKid/C-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>結構與列舉、二進位運算子、陣列、委派、匿名方法、Lambda表達式、事件(委託類型聲明、事件聲明、處理程序聲明、事件註冊、觸發事件的代碼)、
-EventHandler標準事件、Timer。
-本日程式碼:https://github.com/SuperAPPKid/C-</t>
+繼承：所有類別繼承自object，new-隱藏父類別(可能還會用到父類別方法或屬性)、base-取得父類別(只能再方法呼叫)、override必須搭配abstract(覆寫抽象方法)或virtual(覆寫父類別-不會再用到父類別方法或屬性)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本日學習C#的
+介面不可加修飾詞、介面及抽象類別的應用、as與is的用法、類別繼承及轉型的關係、數值轉型造成的溢位、boxing與unboxing、類別與方法的泛型、where的用法。
+本日程式碼:https://github.com/SuperAPPKid/C-Sharp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -236,13 +239,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -586,8 +589,8 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>39</v>
+      <c r="F3" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -607,7 +610,7 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
@@ -626,7 +629,7 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
@@ -645,7 +648,7 @@
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
@@ -664,8 +667,8 @@
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>38</v>
+      <c r="F7" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -685,7 +688,7 @@
       <c r="E8">
         <v>7</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
@@ -704,7 +707,7 @@
       <c r="E9">
         <v>8</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
@@ -723,7 +726,7 @@
       <c r="E10">
         <v>9</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
@@ -742,8 +745,8 @@
       <c r="E11">
         <v>10</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>40</v>
+      <c r="F11" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -763,7 +766,7 @@
       <c r="E12">
         <v>11</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
@@ -782,7 +785,7 @@
       <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
@@ -801,7 +804,7 @@
       <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
@@ -820,7 +823,7 @@
       <c r="E15">
         <v>14</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
@@ -839,7 +842,9 @@
       <c r="E16">
         <v>15</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
@@ -858,7 +863,7 @@
       <c r="E17">
         <v>16</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
@@ -877,7 +882,7 @@
       <c r="E18">
         <v>17</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
@@ -887,7 +892,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="1">
-        <v>43228</v>
+        <v>43229</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="0"/>
@@ -896,7 +901,7 @@
       <c r="E19">
         <v>18</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
@@ -906,7 +911,7 @@
         <v>35</v>
       </c>
       <c r="C20" s="1">
-        <v>43228</v>
+        <v>43230</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="0"/>
@@ -915,7 +920,7 @@
       <c r="E20">
         <v>19</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/預計進度.xlsx
+++ b/預計進度.xlsx
@@ -175,6 +175,8 @@
   <si>
     <t>本日學習C#的
 介面不可加修飾詞、介面及抽象類別的應用、as與is的用法、類別繼承及轉型的關係、數值轉型造成的溢位、boxing與unboxing、類別與方法的泛型、where的用法。
+本日學習C#的
+泛型委派、泛型介面、泛型方法、協變、逆變、class中this指的是被呼叫方法當前類別的元素(繼承時要注意)
 本日程式碼:https://github.com/SuperAPPKid/C-Sharp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -544,7 +546,7 @@
   <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:F20"/>
+      <selection activeCell="F16" sqref="F16:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -873,7 +875,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="1">
-        <v>43228</v>
+        <v>43229</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="0"/>

--- a/預計進度.xlsx
+++ b/預計進度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>第4章</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,11 @@
 本日學習C#的
 泛型委派、泛型介面、泛型方法、協變、逆變、class中this指的是被呼叫方法當前類別的元素(繼承時要注意)
 本日程式碼:https://github.com/SuperAPPKid/C-Sharp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本日學習C#的
+枚舉、IEnumerator與IEnumerable介面、yield使用方式、匿名型別、LINQ語法與Lambda的應用。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -227,7 +232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,9 +250,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -903,7 +905,9 @@
       <c r="E19">
         <v>18</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
@@ -922,7 +926,7 @@
       <c r="E20">
         <v>19</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
